--- a/project-docs/Planning_v1.0.xlsx
+++ b/project-docs/Planning_v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pgp\pgp-capstone-project\team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pgp\pgp-capstone-project\team\worspace\20201205\CapstoneProject-Pneumonia-detection\project-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>#</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>3rd Dec</t>
+  </si>
+  <si>
+    <t>Input data preperation for mode</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,43 +608,31 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4">
-        <v>3</v>
-      </c>
-    </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
